--- a/01-Excel/01-Activites/2/Activities/12-Stu_ProductPivot/Unsolved/ProductionPivot_Unsolved.xlsx
+++ b/01-Excel/01-Activites/2/Activities/12-Stu_ProductPivot/Unsolved/ProductionPivot_Unsolved.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\12-Stu_ProductPivot\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/12-Stu_ProductPivot/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CF4B2-5EA3-E64F-919E-3022F9CF9920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="1800" yWindow="880" windowWidth="14680" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product List" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,57 +49,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Blue Ray DVD</t>
-  </si>
-  <si>
-    <t>Standard Edition DVD</t>
-  </si>
-  <si>
-    <t>VHS Tape</t>
-  </si>
-  <si>
-    <t>2 Foot USB Cable</t>
-  </si>
-  <si>
-    <t>5 Foot USB Cable</t>
-  </si>
-  <si>
-    <t>10 Foot USB Cable</t>
-  </si>
-  <si>
-    <t>5 Foot HDMI Cable</t>
-  </si>
-  <si>
-    <t>10 Foot HDMI Cable</t>
-  </si>
-  <si>
-    <t>16GB Flash Drive</t>
-  </si>
-  <si>
-    <t>32GB Flash Drive</t>
-  </si>
-  <si>
-    <t>64GB Flash Drive</t>
-  </si>
-  <si>
-    <t>128GB Flash Drive</t>
-  </si>
-  <si>
-    <t>Wired Mouse</t>
-  </si>
-  <si>
-    <t>Bluetooth Mouse</t>
-  </si>
-  <si>
-    <t>Wired Keyboard</t>
-  </si>
-  <si>
-    <t>Bluetooth Keyboard</t>
-  </si>
-  <si>
-    <t>Wireless Router</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -115,18 +74,76 @@
   </si>
   <si>
     <t>Shipping Price</t>
+  </si>
+  <si>
+    <t>V-neck shirt</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>Sweatshirt</t>
+  </si>
+  <si>
+    <t>Hoodie</t>
+  </si>
+  <si>
+    <t>Coffee Mug</t>
+  </si>
+  <si>
+    <t>Tote Bag</t>
+  </si>
+  <si>
+    <t>Sticker Sheet</t>
+  </si>
+  <si>
+    <t>Face Mask</t>
+  </si>
+  <si>
+    <t>Baseball Cap</t>
+  </si>
+  <si>
+    <t>Thermos</t>
+  </si>
+  <si>
+    <t>12"x18" Canvas Print</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Bandana</t>
+  </si>
+  <si>
+    <t>12" Square Canvas Print</t>
+  </si>
+  <si>
+    <t>Enamel Pin</t>
+  </si>
+  <si>
+    <t>Phone Cover</t>
+  </si>
+  <si>
+    <t>Holiday Ornament</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -176,28 +193,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -512,22 +528,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,239 +558,239 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4">
-        <v>19.96</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F2" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>100+ROW()-2</f>
         <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>14.96</v>
+        <v>17.96</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A52" si="0">100+ROW()-2</f>
+        <f t="shared" ref="A4:A11" si="0">100+ROW()-2</f>
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
-        <v>3.99</v>
+        <v>24.98</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>4.42</v>
+        <v>29.98</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>200</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>15.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>A12+1</f>
         <v>201</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
-        <v>31.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ref="A14:A18" si="1">A13+1</f>
         <v>202</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.489999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4">
-        <v>13.28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
-        <v>21.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4">
-        <v>109.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
     </row>
   </sheetData>
@@ -783,397 +799,397 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E29"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10029367401</v>
-      </c>
-      <c r="B2">
-        <v>105</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>10013651</v>
+      </c>
+      <c r="B2" s="7">
+        <v>204</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>10029367401</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>10013651</v>
+      </c>
+      <c r="B3" s="7">
+        <v>201</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10029367401</v>
-      </c>
-      <c r="B4">
-        <v>105</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>10013651</v>
+      </c>
+      <c r="B4" s="7">
+        <v>203</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10029367401</v>
-      </c>
-      <c r="B5">
-        <v>106</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>10013651</v>
+      </c>
+      <c r="B5" s="7">
+        <v>103</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <v>10029367402</v>
-      </c>
-      <c r="B6">
-        <v>108</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>10013651</v>
+      </c>
+      <c r="B6" s="7">
+        <v>205</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>10029367402</v>
-      </c>
-      <c r="B7">
-        <v>107</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>10013651</v>
+      </c>
+      <c r="B7" s="7">
+        <v>102</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <v>10029367402</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>10013652</v>
+      </c>
+      <c r="B8" s="7">
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>10029367403</v>
-      </c>
-      <c r="B9">
-        <v>202</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>10013652</v>
+      </c>
+      <c r="B9" s="7">
+        <v>101</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>10029367403</v>
-      </c>
-      <c r="B10">
+        <v>10013652</v>
+      </c>
+      <c r="B10" s="7">
         <v>105</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>10029367403</v>
-      </c>
-      <c r="B11">
-        <v>106</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>10013652</v>
+      </c>
+      <c r="B11" s="7">
+        <v>201</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>10029367403</v>
-      </c>
-      <c r="B12">
-        <v>106</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
+        <v>10013652</v>
+      </c>
+      <c r="B12" s="7">
+        <v>103</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>10029367403</v>
-      </c>
-      <c r="B13">
-        <v>201</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>10013652</v>
+      </c>
+      <c r="B13" s="7">
+        <v>107</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>10029367403</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>10013653</v>
+      </c>
+      <c r="B14" s="7">
+        <v>203</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>10029367403</v>
-      </c>
-      <c r="B15">
+        <v>10013653</v>
+      </c>
+      <c r="B15" s="7">
         <v>201</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>22</v>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>10029367403</v>
-      </c>
-      <c r="B16">
-        <v>101</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>10013653</v>
+      </c>
+      <c r="B16" s="7">
+        <v>206</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>10029367404</v>
-      </c>
-      <c r="B17">
-        <v>106</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>23</v>
+        <v>10013653</v>
+      </c>
+      <c r="B17" s="7">
+        <v>104</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>10029367404</v>
-      </c>
-      <c r="B18">
+        <v>10013653</v>
+      </c>
+      <c r="B18" s="7">
         <v>202</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>23</v>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>10029367404</v>
-      </c>
-      <c r="B19">
-        <v>105</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>24</v>
+        <v>10013653</v>
+      </c>
+      <c r="B19" s="7">
+        <v>202</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>10029367404</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>24</v>
+        <v>10013654</v>
+      </c>
+      <c r="B20" s="7">
+        <v>206</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>10029367405</v>
-      </c>
-      <c r="B21">
-        <v>106</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>24</v>
+        <v>10013654</v>
+      </c>
+      <c r="B21" s="7">
+        <v>201</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <v>10029367406</v>
-      </c>
-      <c r="B22">
-        <v>103</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>23</v>
+        <v>10013654</v>
+      </c>
+      <c r="B22" s="7">
+        <v>206</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>10029367406</v>
-      </c>
-      <c r="B23">
-        <v>206</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
+        <v>10013654</v>
+      </c>
+      <c r="B23" s="7">
+        <v>101</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <v>10029367406</v>
-      </c>
-      <c r="B24">
-        <v>206</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
+        <v>10013655</v>
+      </c>
+      <c r="B24" s="7">
+        <v>103</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>10029367406</v>
-      </c>
-      <c r="B25">
-        <v>103</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>24</v>
+        <v>10013656</v>
+      </c>
+      <c r="B25" s="7">
+        <v>200</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>10029367406</v>
-      </c>
-      <c r="B26">
-        <v>100</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>23</v>
+        <v>10013656</v>
+      </c>
+      <c r="B26" s="7">
+        <v>205</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>10029367406</v>
-      </c>
-      <c r="B27">
-        <v>102</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>25</v>
+        <v>10013656</v>
+      </c>
+      <c r="B27" s="7">
+        <v>200</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <v>10029367406</v>
-      </c>
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>22</v>
+        <v>10013656</v>
+      </c>
+      <c r="B28" s="7">
+        <v>106</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>10029367406</v>
-      </c>
-      <c r="B29">
-        <v>109</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>25</v>
+        <v>10013656</v>
+      </c>
+      <c r="B29" s="7">
+        <v>205</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
